--- a/학습자료/단답형/객관식_영어_단어_Day10.xlsx
+++ b/학습자료/단답형/객관식_영어_단어_Day10.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>a (soft) snap
-1. 쉬운 일
-2. 발사하다
-3. 굉장히 매력적인 사람</t>
+1. 상승세
+2. 체계적인, 조직적인
+3. 쉬운 일</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1, 쉬운 일</t>
+          <t>3, 쉬운 일</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>a backseat driver
-1. 쓸데없이 간섭하는 사람
-2. 좋을 때만 친구[팀이 잘 나갈 때만 응원하는 팬]
-3. 예상치 못한 상황에 대한 늦은 반응</t>
+1. 좋을 때만 친구[팀이 잘 나갈 때만 응원하는 팬]
+2. 하락세
+3. 쓸데없이 간섭하는 사람</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1, 쓸데없이 간섭하는 사람</t>
+          <t>3, 쓸데없이 간섭하는 사람</t>
         </is>
       </c>
     </row>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>a baker'(long) dozen
-1. 예상치 못한 상황에 대한 늦은 반응
-2. 13(개)
-3. 고운 마음씨</t>
+1. 13(개)
+2. 고단한 날
+3. 발굴하다</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2, 13(개)</t>
+          <t>1, 13(개)</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>a bear market
-1. 발굴하다
-2. 하락세
-3. 13(개)</t>
+1. 하락세
+2. 자랑거리
+3. 좋을 때만 친구[팀이 잘 나갈 때만 응원하는 팬]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2, 하락세</t>
+          <t>1, 하락세</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>a big bug[shot; name; noise]
-1. 대단한 인물
-2. 완화하다, 완화되다
-3. 다재다능한 인물, 팔방미인</t>
+1. 큰 금액의 정치 후원을 하는 사람, 부자
+2. 축하하다, 기념하다
+3. 대단한 인물</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1, 대단한 인물</t>
+          <t>3, 대단한 인물</t>
         </is>
       </c>
     </row>
@@ -524,9 +524,9 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>a bigwig
-1. 상승세
+1. 고운 마음씨
 2. 대단한 인물
-3. 다재다능한 인물, 팔방미인</t>
+3. 오랫동안 가만히 앉아 텔레비전만 보는 사람</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -539,8 +539,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>a big deal
-1. 입이 가벼운 사람, 수다스러운 사람
-2. 냉혈한, 냉정한 인간
+1. 오랫동안 가만히 앉아 텔레비전만 보는 사람
+2. 헐값에 산 물건
 3. 크거나 중요한 일(사람)</t>
         </is>
       </c>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>a big fish in a little pond
-1. 집들이
-2. 고단한 날
-3. 우물 안 개구리</t>
+1. 우물 안 개구리
+2. 발사하다
+3. 쉬운 일</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3, 우물 안 개구리</t>
+          <t>1, 우물 안 개구리</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>a big hand
-1. 겁쟁이
-2. 모방하는 인간
-3. 힘찬 박수, 뜨거운 박수</t>
+1. 위험한 순간
+2. 힘찬 박수, 뜨거운 박수
+3. 쉬운 일</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3, 힘찬 박수, 뜨거운 박수</t>
+          <t>2, 힘찬 박수, 뜨거운 박수</t>
         </is>
       </c>
     </row>
@@ -585,8 +585,8 @@
         <is>
           <t>a big fish
 1. 대단한 인물
-2. 새 발의 피
-3. 입이 가벼운 사람, 수다스러운 사람</t>
+2. 심술 맞은 사람
+3. 겁쟁이</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>a bigmouth
-1. (물건을) 싸다
-2. 우물 안 개구리
-3. 입이 가벼운 사람, 수다스러운 사람</t>
+1. 유력한 경쟁 상대 (다크호스)
+2. 입이 가벼운 사람, 수다스러운 사람
+3. 집들이</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3, 입이 가벼운 사람, 수다스러운 사람</t>
+          <t>2, 입이 가벼운 사람, 수다스러운 사람</t>
         </is>
       </c>
     </row>
@@ -614,8 +614,8 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>a blind date
-1. 냉혈한, 냉정한 인간
-2. 심술 맞은 사람
+1. 겁쟁이
+2. 13(개)
 3. 소개팅, 서로 모르는 남녀의 데이트</t>
         </is>
       </c>
@@ -629,9 +629,9 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>a bolt from[out of] the blue [sky]
-1. 대단한 인물
+1. 지우다
 2. 예기치 못한 일
-3. 큰 금액의 정치 후원을 하는 사람, 부자</t>
+3. 우물 안 개구리</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -644,9 +644,9 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>a bone of contention
-1. 대단한 인물
+1. 완화하다, 완화되다
 2. 분쟁의 원인
-3. 집들이</t>
+3. 예기치 못한 일</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -660,8 +660,8 @@
         <is>
           <t>dragon's teeth
 1. 분쟁의 원인
-2. 다재다능한 인물, 팔방미인
-3. 축하하다, 기념하다</t>
+2. 입이 가벼운 사람, 수다스러운 사람
+3. 쉬운 일</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>a bull market
-1. 상승세
-2. 오랫동안 가만히 앉아 텔레비전만 보는 사람
-3. 새 발의 피</t>
+1. 굉장히 매력적인 사람
+2. 상승세
+3. 오랫동안 가만히 앉아 텔레비전만 보는 사람</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1, 상승세</t>
+          <t>2, 상승세</t>
         </is>
       </c>
     </row>
@@ -689,9 +689,9 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>a cash cow
-1. 실망시키다
+1. (물건을) 싸다
 2. 이익을 불러오는 사업
-3. 하락세</t>
+3. 폭로하다</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>a chicken
-1. 상승세
-2. 자랑거리
-3. 겁쟁이</t>
+1. 겁쟁이
+2. 세상 물정에 밝은 사람
+3. 크거나 중요한 일(사람)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3, 겁쟁이</t>
+          <t>1, 겁쟁이</t>
         </is>
       </c>
     </row>
@@ -719,14 +719,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>a chip off the old block
-1. 힘찬 박수, 뜨거운 박수
-2. 다재다능한 인물, 팔방미인
-3. (부모와 아주 닮은) 판박이</t>
+1. (부모와 아주 닮은) 판박이
+2. 예기치 못한 일
+3. 어려운 문제[일]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3, (부모와 아주 닮은) 판박이</t>
+          <t>1, (부모와 아주 닮은) 판박이</t>
         </is>
       </c>
     </row>
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>a close call
-1. 냉혈한, 냉정한 인간
-2. 위험한 순간
-3. 모방하는 인간</t>
+1. 위험한 순간
+2. 심술 맞은 사람
+3. 품질이 좋지 않은 물건</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2, 위험한 순간</t>
+          <t>1, 위험한 순간</t>
         </is>
       </c>
     </row>
@@ -750,8 +750,8 @@
         <is>
           <t>a cold fish
 1. 냉혈한, 냉정한 인간
-2. 입이 가벼운 사람, 수다스러운 사람
-3. 고운 마음씨</t>
+2. 발굴하다
+3. 최후의 수단</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>a copycat
-1. 자기 말을 지키는 사람
-2. 실망시키다
-3. 모방하는 인간</t>
+1. 모방하는 인간
+2. 새 발의 피
+3. 최후의 수단</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3, 모방하는 인간</t>
+          <t>1, 모방하는 인간</t>
         </is>
       </c>
     </row>
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>a couch potato
-1. 예기치 못한 일
-2. 오랫동안 가만히 앉아 텔레비전만 보는 사람
-3. 집들이</t>
+1. 오랫동안 가만히 앉아 텔레비전만 보는 사람
+2. 분쟁의 원인
+3. 소개팅, 서로 모르는 남녀의 데이트</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2, 오랫동안 가만히 앉아 텔레비전만 보는 사람</t>
+          <t>1, 오랫동안 가만히 앉아 텔레비전만 보는 사람</t>
         </is>
       </c>
     </row>
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>a dark horse
-1. 겁쟁이
-2. 유력한 경쟁 상대 (다크호스)
-3. 독창적인</t>
+1. 유력한 경쟁 상대 (다크호스)
+2. 발굴하다
+3. (부모와 아주 닮은) 판박이</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2, 유력한 경쟁 상대 (다크호스)</t>
+          <t>1, 유력한 경쟁 상대 (다크호스)</t>
         </is>
       </c>
     </row>
@@ -810,8 +810,8 @@
         <is>
           <t>a dead[good, real] bargin
 1. 헐값에 산 물건
-2. 위험한 순간
-3. 예상치 못한 상황에 대한 늦은 반응</t>
+2. 폭로하다
+3. 새 발의 피</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -825,8 +825,8 @@
         <is>
           <t>a dog in the manger
 1. 심술 맞은 사람
-2. 실망시키다
-3. 유리천장(승진하기 힘든 구조)</t>
+2. 입이 가벼운 사람, 수다스러운 사람
+3. 고단한 날</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>a double take
-1. 체계적인, 조직적인
-2. 예상치 못한 상황에 대한 늦은 반응
-3. (특히 공인이면서) 돌출 행동을 자주 하는 사람</t>
+1. 발굴하다
+2. 쓸데없이 간섭하는 사람
+3. 예상치 못한 상황에 대한 늦은 반응</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2, 예상치 못한 상황에 대한 늦은 반응</t>
+          <t>3, 예상치 못한 상황에 대한 늦은 반응</t>
         </is>
       </c>
     </row>
@@ -854,14 +854,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>a drop in the bucket
-1. 자랑거리
-2. 유력한 경쟁 상대 (다크호스)
-3. 새 발의 피</t>
+1. 유력한 경쟁 상대 (다크호스)
+2. 새 발의 피
+3. 쉬운 일</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3, 새 발의 피</t>
+          <t>2, 새 발의 피</t>
         </is>
       </c>
     </row>
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>a drop in the ocean
-1. 크거나 중요한 일(사람)
-2. 하락세
-3. 새 발의 피</t>
+1. 품질이 좋지 않은 물건
+2. 새 발의 피
+3. 유리천장(승진하기 힘든 구조)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3, 새 발의 피</t>
+          <t>2, 새 발의 피</t>
         </is>
       </c>
     </row>
@@ -885,8 +885,8 @@
         <is>
           <t>the tip of the iceberg
 1. 새 발의 피
-2. 큰 금액의 정치 후원을 하는 사람, 부자
-3. 자기 말을 지키는 사람</t>
+2. 예기치 못한 일
+3. 고단한 날</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -899,14 +899,14 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>a fair-weather friend[fan]
-1. 유리천장(승진하기 힘든 구조)
-2. 굉장히 매력적인 사람
-3. 좋을 때만 친구[팀이 잘 나갈 때만 응원하는 팬]</t>
+1. 좋을 때만 친구[팀이 잘 나갈 때만 응원하는 팬]
+2. 가능성 없는 일, 어려운 일
+3. (특히 공인이면서) 돌출 행동을 자주 하는 사람</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3, 좋을 때만 친구[팀이 잘 나갈 때만 응원하는 팬]</t>
+          <t>1, 좋을 때만 친구[팀이 잘 나갈 때만 응원하는 팬]</t>
         </is>
       </c>
     </row>
@@ -914,14 +914,14 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>a far cry from
-1. 분쟁의 원인
-2. ~와는 완전히 다른
-3. 하락세</t>
+1. ~와는 완전히 다른
+2. 집들이
+3. 가능성 없는 일, 어려운 일</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2, ~와는 완전히 다른</t>
+          <t>1, ~와는 완전히 다른</t>
         </is>
       </c>
     </row>
@@ -929,14 +929,14 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>a fat cat
-1. 지우다
-2. (물건을) 싸다
-3. 큰 금액의 정치 후원을 하는 사람, 부자</t>
+1. 집들이
+2. 큰 금액의 정치 후원을 하는 사람, 부자
+3. 우물 안 개구리</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3, 큰 금액의 정치 후원을 하는 사람, 부자</t>
+          <t>2, 큰 금액의 정치 후원을 하는 사람, 부자</t>
         </is>
       </c>
     </row>
@@ -944,14 +944,14 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>a feather in one's cap
-1. 지우다
-2. 소개팅, 서로 모르는 남녀의 데이트
-3. 자랑거리</t>
+1. 힘찬 박수, 뜨거운 박수
+2. 자랑거리
+3. 쉬운 일</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3, 자랑거리</t>
+          <t>2, 자랑거리</t>
         </is>
       </c>
     </row>
@@ -959,14 +959,14 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>a glass ceiling
-1. ~와는 완전히 다른
-2. 실망시키다
-3. 유리천장(승진하기 힘든 구조)</t>
+1. 유리천장(승진하기 힘든 구조)
+2. 독창적인
+3. 다재다능한 인물, 팔방미인</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3, 유리천장(승진하기 힘든 구조)</t>
+          <t>1, 유리천장(승진하기 힘든 구조)</t>
         </is>
       </c>
     </row>
@@ -974,8 +974,8 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>a hard nut to crack
-1. 유력한 경쟁 상대 (다크호스)
-2. 분쟁의 원인
+1. 이익을 불러오는 사업
+2. (부모와 아주 닮은) 판박이
 3. 어려운 문제[일]</t>
         </is>
       </c>
@@ -991,7 +991,7 @@
           <t>a heart of gold
 1. 고운 마음씨
 2. 실망시키다
-3. 세상 물정에 밝은 사람</t>
+3. 가능성 없는 일, 어려운 일</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1004,14 +1004,14 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>a house-warming party
-1. ~와는 완전히 다른
-2. 집들이
-3. 큰 금액의 정치 후원을 하는 사람, 부자</t>
+1. 폭로하다
+2. 발사하다
+3. 집들이</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2, 집들이</t>
+          <t>3, 집들이</t>
         </is>
       </c>
     </row>
@@ -1019,14 +1019,14 @@
       <c r="A40" t="inlineStr">
         <is>
           <t>a Jack of all trades
-1. 집들이
-2. 독창적인
-3. 다재다능한 인물, 팔방미인</t>
+1. (특히 공인이면서) 돌출 행동을 자주 하는 사람
+2. 다재다능한 인물, 팔방미인
+3. 위험한 순간</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3, 다재다능한 인물, 팔방미인</t>
+          <t>2, 다재다능한 인물, 팔방미인</t>
         </is>
       </c>
     </row>
@@ -1034,14 +1034,14 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>a knockout
-1. 굉장히 매력적인 사람
-2. 독창적인
-3. 겁쟁이</t>
+1. 축하하다, 기념하다
+2. 굉장히 매력적인 사람
+3. 폭로하다</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1, 굉장히 매력적인 사람</t>
+          <t>2, 굉장히 매력적인 사람</t>
         </is>
       </c>
     </row>
@@ -1049,14 +1049,14 @@
       <c r="A42" t="inlineStr">
         <is>
           <t>a last resort
-1. 최후의 수단
-2. 좋을 때만 친구[팀이 잘 나갈 때만 응원하는 팬]
-3. 하락세</t>
+1. 축하하다, 기념하다
+2. 최후의 수단
+3. 집들이</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1, 최후의 수단</t>
+          <t>2, 최후의 수단</t>
         </is>
       </c>
     </row>
@@ -1064,8 +1064,8 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>a lemon
-1. 우물 안 개구리
-2. 좋을 때만 친구[팀이 잘 나갈 때만 응원하는 팬]
+1. 독창적인
+2. 모방하는 인간
 3. 품질이 좋지 않은 물건</t>
         </is>
       </c>
@@ -1079,14 +1079,14 @@
       <c r="A44" t="inlineStr">
         <is>
           <t>a long day
-1. 고단한 날
-2. 자기 말을 지키는 사람
-3. 냉혈한, 냉정한 인간</t>
+1. 다재다능한 인물, 팔방미인
+2. 고단한 날
+3. 고운 마음씨</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1, 고단한 날</t>
+          <t>2, 고단한 날</t>
         </is>
       </c>
     </row>
@@ -1094,14 +1094,14 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>a long shot
-1. 지우다
-2. 가능성 없는 일, 어려운 일
-3. 고운 마음씨</t>
+1. 유리천장(승진하기 힘든 구조)
+2. 고운 마음씨
+3. 가능성 없는 일, 어려운 일</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2, 가능성 없는 일, 어려운 일</t>
+          <t>3, 가능성 없는 일, 어려운 일</t>
         </is>
       </c>
     </row>
@@ -1109,14 +1109,14 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>a loose cannon
-1. (특히 공인이면서) 돌출 행동을 자주 하는 사람
-2. 쉬운 일
-3. (부모와 아주 닮은) 판박이</t>
+1. 힘찬 박수, 뜨거운 박수
+2. (물건을) 싸다
+3. (특히 공인이면서) 돌출 행동을 자주 하는 사람</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1, (특히 공인이면서) 돌출 행동을 자주 하는 사람</t>
+          <t>3, (특히 공인이면서) 돌출 행동을 자주 하는 사람</t>
         </is>
       </c>
     </row>
@@ -1124,14 +1124,14 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>a man of his word
-1. 상승세
-2. 자기 말을 지키는 사람
-3. 새 발의 피</t>
+1. 자기 말을 지키는 사람
+2. 고단한 날
+3. 힘찬 박수, 뜨거운 박수</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2, 자기 말을 지키는 사람</t>
+          <t>1, 자기 말을 지키는 사람</t>
         </is>
       </c>
     </row>
@@ -1139,14 +1139,14 @@
       <c r="A48" t="inlineStr">
         <is>
           <t>a man of the world
-1. 예기치 못한 일
-2. 최후의 수단
-3. 세상 물정에 밝은 사람</t>
+1. (부모와 아주 닮은) 판박이
+2. 세상 물정에 밝은 사람
+3. 헐값에 산 물건</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3, 세상 물정에 밝은 사람</t>
+          <t>2, 세상 물정에 밝은 사람</t>
         </is>
       </c>
     </row>
@@ -1154,9 +1154,9 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>a narrow[close] squeak[escape]
-1. 고운 마음씨
+1. 예기치 못한 일
 2. 위험한 순간
-3. 심술 맞은 사람</t>
+3. (물건을) 싸다</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1169,14 +1169,14 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>systematic
-1. 실망시키다
-2. 체계적인, 조직적인
-3. 13(개)</t>
+1. 체계적인, 조직적인
+2. 유력한 경쟁 상대 (다크호스)
+3. 폭로하다</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2, 체계적인, 조직적인</t>
+          <t>1, 체계적인, 조직적인</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1184,14 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>organized
-1. 축하하다, 기념하다
-2. (물건을) 싸다
-3. 체계적인, 조직적인</t>
+1. 굉장히 매력적인 사람
+2. 체계적인, 조직적인
+3. 고운 마음씨</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3, 체계적인, 조직적인</t>
+          <t>2, 체계적인, 조직적인</t>
         </is>
       </c>
     </row>
@@ -1199,14 +1199,14 @@
       <c r="A52" t="inlineStr">
         <is>
           <t>planned
-1. ~와는 완전히 다른
-2. 체계적인, 조직적인
-3. 품질이 좋지 않은 물건</t>
+1. 체계적인, 조직적인
+2. (물건을) 싸다
+3. 분쟁의 원인</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2, 체계적인, 조직적인</t>
+          <t>1, 체계적인, 조직적인</t>
         </is>
       </c>
     </row>
@@ -1214,14 +1214,14 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>methodical
-1. 쓸데없이 간섭하는 사람
-2. 13(개)
-3. 체계적인, 조직적인</t>
+1. 굉장히 매력적인 사람
+2. 체계적인, 조직적인
+3. 새 발의 피</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3, 체계적인, 조직적인</t>
+          <t>2, 체계적인, 조직적인</t>
         </is>
       </c>
     </row>
@@ -1229,9 +1229,9 @@
       <c r="A54" t="inlineStr">
         <is>
           <t>innovative
-1. 냉혈한, 냉정한 인간
+1. 분쟁의 원인
 2. 독창적인
-3. 입이 가벼운 사람, 수다스러운 사람</t>
+3. 좋을 때만 친구[팀이 잘 나갈 때만 응원하는 팬]</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1244,9 +1244,9 @@
       <c r="A55" t="inlineStr">
         <is>
           <t>original
-1. 분쟁의 원인
+1. (물건을) 싸다
 2. 독창적인
-3. (특히 공인이면서) 돌출 행동을 자주 하는 사람</t>
+3. 실망시키다</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1259,14 +1259,14 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>novel
-1. 입이 가벼운 사람, 수다스러운 사람
-2. 독창적인
-3. 축하하다, 기념하다</t>
+1. 독창적인
+2. (물건을) 싸다
+3. 집들이</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2, 독창적인</t>
+          <t>1, 독창적인</t>
         </is>
       </c>
     </row>
@@ -1274,14 +1274,14 @@
       <c r="A57" t="inlineStr">
         <is>
           <t>inventive
-1. 우물 안 개구리
-2. 굉장히 매력적인 사람
-3. 독창적인</t>
+1. (부모와 아주 닮은) 판박이
+2. 독창적인
+3. 모방하는 인간</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3, 독창적인</t>
+          <t>2, 독창적인</t>
         </is>
       </c>
     </row>
@@ -1289,14 +1289,14 @@
       <c r="A58" t="inlineStr">
         <is>
           <t>ingenious
-1. 독창적인
-2. 입이 가벼운 사람, 수다스러운 사람
-3. 품질이 좋지 않은 물건</t>
+1. 새 발의 피
+2. 폭로하다
+3. 독창적인</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1, 독창적인</t>
+          <t>3, 독창적인</t>
         </is>
       </c>
     </row>
@@ -1304,14 +1304,14 @@
       <c r="A59" t="inlineStr">
         <is>
           <t>disclose
-1. 폭로하다
-2. 대단한 인물
-3. 위험한 순간</t>
+1. 쓸데없이 간섭하는 사람
+2. 폭로하다
+3. 심술 맞은 사람</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1, 폭로하다</t>
+          <t>2, 폭로하다</t>
         </is>
       </c>
     </row>
@@ -1319,14 +1319,14 @@
       <c r="A60" t="inlineStr">
         <is>
           <t>let on
-1. 겁쟁이
-2. 유리천장(승진하기 힘든 구조)
-3. 폭로하다</t>
+1. 발굴하다
+2. 폭로하다
+3. 큰 금액의 정치 후원을 하는 사람, 부자</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3, 폭로하다</t>
+          <t>2, 폭로하다</t>
         </is>
       </c>
     </row>
@@ -1334,14 +1334,14 @@
       <c r="A61" t="inlineStr">
         <is>
           <t>reveal
-1. 폭로하다
-2. 큰 금액의 정치 후원을 하는 사람, 부자
-3. (물건을) 싸다</t>
+1. 최후의 수단
+2. (부모와 아주 닮은) 판박이
+3. 폭로하다</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1, 폭로하다</t>
+          <t>3, 폭로하다</t>
         </is>
       </c>
     </row>
@@ -1350,8 +1350,8 @@
         <is>
           <t>expose
 1. 폭로하다
-2. 크거나 중요한 일(사람)
-3. 실망시키다</t>
+2. 겁쟁이
+3. 체계적인, 조직적인</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1364,9 +1364,9 @@
       <c r="A63" t="inlineStr">
         <is>
           <t>divulge
-1. 가능성 없는 일, 어려운 일
+1. 유리천장(승진하기 힘든 구조)
 2. 폭로하다
-3. 고단한 날</t>
+3. 좋을 때만 친구[팀이 잘 나갈 때만 응원하는 팬]</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1379,9 +1379,9 @@
       <c r="A64" t="inlineStr">
         <is>
           <t>let off
-1. 다재다능한 인물, 팔방미인
+1. 모방하는 인간
 2. 발사하다
-3. 체계적인, 조직적인</t>
+3. 오랫동안 가만히 앉아 텔레비전만 보는 사람</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1394,14 +1394,14 @@
       <c r="A65" t="inlineStr">
         <is>
           <t>touch off
-1. 완화하다, 완화되다
-2. 발사하다
-3. 굉장히 매력적인 사람</t>
+1. 발사하다
+2. 발굴하다
+3. 큰 금액의 정치 후원을 하는 사람, 부자</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2, 발사하다</t>
+          <t>1, 발사하다</t>
         </is>
       </c>
     </row>
@@ -1409,9 +1409,9 @@
       <c r="A66" t="inlineStr">
         <is>
           <t>shoot
-1. 13(개)
+1. 상승세
 2. 발사하다
-3. 굉장히 매력적인 사람</t>
+3. 크거나 중요한 일(사람)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1424,14 +1424,14 @@
       <c r="A67" t="inlineStr">
         <is>
           <t>launch
-1. 발사하다
-2. 위험한 순간
-3. 모방하는 인간</t>
+1. 가능성 없는 일, 어려운 일
+2. 발사하다
+3. ~와는 완전히 다른</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1, 발사하다</t>
+          <t>2, 발사하다</t>
         </is>
       </c>
     </row>
@@ -1439,14 +1439,14 @@
       <c r="A68" t="inlineStr">
         <is>
           <t>discharge
-1. 고운 마음씨
-2. 유리천장(승진하기 힘든 구조)
-3. 발사하다</t>
+1. 발사하다
+2. 최후의 수단
+3. 고단한 날</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3, 발사하다</t>
+          <t>1, 발사하다</t>
         </is>
       </c>
     </row>
@@ -1454,74 +1454,74 @@
       <c r="A69" t="inlineStr">
         <is>
           <t>let up
+1. 발사하다
+2. 완화하다, 완화되다
+3. 지우다</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2, 완화하다, 완화되다</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ease off
+1. 쉬운 일
+2. 지우다
+3. 완화하다, 완화되다</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>3, 완화하다, 완화되다</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>cushion
+1. 완화하다, 완화되다
+2. 최후의 수단
+3. 소개팅, 서로 모르는 남녀의 데이트</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1, 완화하다, 완화되다</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>lossen
+1. (부모와 아주 닮은) 판박이
+2. 완화하다, 완화되다
+3. 자기 말을 지키는 사람</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2, 완화하다, 완화되다</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>slacken
 1. 완화하다, 완화되다
 2. 유리천장(승진하기 힘든 구조)
-3. 새 발의 피</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
+3. 유력한 경쟁 상대 (다크호스)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>1, 완화하다, 완화되다</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>ease off
-1. 대단한 인물
-2. 어려운 문제[일]
-3. 완화하다, 완화되다</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>3, 완화하다, 완화되다</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>cushion
-1. (특히 공인이면서) 돌출 행동을 자주 하는 사람
-2. 완화하다, 완화되다
-3. ~와는 완전히 다른</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2, 완화하다, 완화되다</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>lossen
-1. 완화하다, 완화되다
-2. 자랑거리
-3. (물건을) 싸다</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1, 완화하다, 완화되다</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>slacken
-1. 우물 안 개구리
-2. (특히 공인이면서) 돌출 행동을 자주 하는 사람
-3. 완화하다, 완화되다</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>3, 완화하다, 완화되다</t>
         </is>
       </c>
     </row>
@@ -1529,8 +1529,8 @@
       <c r="A74" t="inlineStr">
         <is>
           <t>let down
-1. 품질이 좋지 않은 물건
-2. 고운 마음씨
+1. 겁쟁이
+2. 집들이
 3. 실망시키다</t>
         </is>
       </c>
@@ -1544,14 +1544,14 @@
       <c r="A75" t="inlineStr">
         <is>
           <t>disappoint
-1. 집들이
-2. 실망시키다
-3. 새 발의 피</t>
+1. 쓸데없이 간섭하는 사람
+2. 축하하다, 기념하다
+3. 실망시키다</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2, 실망시키다</t>
+          <t>3, 실망시키다</t>
         </is>
       </c>
     </row>
@@ -1559,8 +1559,8 @@
       <c r="A76" t="inlineStr">
         <is>
           <t>discourage
-1. 고단한 날
-2. 최후의 수단
+1. 오랫동안 가만히 앉아 텔레비전만 보는 사람
+2. 입이 가벼운 사람, 수다스러운 사람
 3. 실망시키다</t>
         </is>
       </c>
@@ -1575,8 +1575,8 @@
         <is>
           <t>frustrate
 1. 실망시키다
-2. (물건을) 싸다
-3. 폭로하다</t>
+2. 자랑거리
+3. 크거나 중요한 일(사람)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1589,14 +1589,14 @@
       <c r="A78" t="inlineStr">
         <is>
           <t>excavate
-1. 발굴하다
-2. 독창적인
-3. 심술 맞은 사람</t>
+1. 자기 말을 지키는 사람
+2. 발굴하다
+3. 예상치 못한 상황에 대한 늦은 반응</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1, 발굴하다</t>
+          <t>2, 발굴하다</t>
         </is>
       </c>
     </row>
@@ -1604,14 +1604,14 @@
       <c r="A79" t="inlineStr">
         <is>
           <t>exhume
-1. 우물 안 개구리
-2. 대단한 인물
-3. 발굴하다</t>
+1. 체계적인, 조직적인
+2. 발굴하다
+3. 헐값에 산 물건</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3, 발굴하다</t>
+          <t>2, 발굴하다</t>
         </is>
       </c>
     </row>
@@ -1620,8 +1620,8 @@
         <is>
           <t>unearth
 1. 발굴하다
-2. 쉬운 일
-3. 냉혈한, 냉정한 인간</t>
+2. 최후의 수단
+3. (물건을) 싸다</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1634,14 +1634,14 @@
       <c r="A81" t="inlineStr">
         <is>
           <t>unbury
-1. 실망시키다
-2. (물건을) 싸다
-3. 발굴하다</t>
+1. 소개팅, 서로 모르는 남녀의 데이트
+2. 발굴하다
+3. 좋을 때만 친구[팀이 잘 나갈 때만 응원하는 팬]</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3, 발굴하다</t>
+          <t>2, 발굴하다</t>
         </is>
       </c>
     </row>
@@ -1649,14 +1649,14 @@
       <c r="A82" t="inlineStr">
         <is>
           <t>disinter
-1. 축하하다, 기념하다
-2. 13(개)
-3. 발굴하다</t>
+1. 발굴하다
+2. 어려운 문제[일]
+3. 체계적인, 조직적인</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>3, 발굴하다</t>
+          <t>1, 발굴하다</t>
         </is>
       </c>
     </row>
@@ -1664,14 +1664,14 @@
       <c r="A83" t="inlineStr">
         <is>
           <t>pack
-1. (물건을) 싸다
-2. 고운 마음씨
-3. 고단한 날</t>
+1. 폭로하다
+2. 발사하다
+3. (물건을) 싸다</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1, (물건을) 싸다</t>
+          <t>3, (물건을) 싸다</t>
         </is>
       </c>
     </row>
@@ -1679,14 +1679,14 @@
       <c r="A84" t="inlineStr">
         <is>
           <t>warp
-1. (부모와 아주 닮은) 판박이
-2. (물건을) 싸다
-3. 독창적인</t>
+1. 독창적인
+2. 대단한 인물
+3. (물건을) 싸다</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2, (물건을) 싸다</t>
+          <t>3, (물건을) 싸다</t>
         </is>
       </c>
     </row>
@@ -1695,8 +1695,8 @@
         <is>
           <t>envelop
 1. (물건을) 싸다
-2. 발굴하다
-3. 우물 안 개구리</t>
+2. 좋을 때만 친구[팀이 잘 나갈 때만 응원하는 팬]
+3. ~와는 완전히 다른</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1709,8 +1709,8 @@
       <c r="A86" t="inlineStr">
         <is>
           <t>erase
-1. 가능성 없는 일, 어려운 일
-2. 크거나 중요한 일(사람)
+1. 하락세
+2. (물건을) 싸다
 3. 지우다</t>
         </is>
       </c>
@@ -1724,14 +1724,14 @@
       <c r="A87" t="inlineStr">
         <is>
           <t>efface
-1. 지우다
-2. 쓸데없이 간섭하는 사람
-3. 새 발의 피</t>
+1. 위험한 순간
+2. 지우다
+3. 독창적인</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1, 지우다</t>
+          <t>2, 지우다</t>
         </is>
       </c>
     </row>
@@ -1740,8 +1740,8 @@
         <is>
           <t>eradicate
 1. 지우다
-2. 예상치 못한 상황에 대한 늦은 반응
-3. 새 발의 피</t>
+2. (물건을) 싸다
+3. 자기 말을 지키는 사람</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1754,14 +1754,14 @@
       <c r="A89" t="inlineStr">
         <is>
           <t>obliterate
-1. 지우다
-2. 예기치 못한 일
-3. 오랫동안 가만히 앉아 텔레비전만 보는 사람</t>
+1. 가능성 없는 일, 어려운 일
+2. 세상 물정에 밝은 사람
+3. 지우다</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1, 지우다</t>
+          <t>3, 지우다</t>
         </is>
       </c>
     </row>
@@ -1769,8 +1769,8 @@
       <c r="A90" t="inlineStr">
         <is>
           <t>expunge
-1. 위험한 순간
-2. 좋을 때만 친구[팀이 잘 나갈 때만 응원하는 팬]
+1. 실망시키다
+2. 고단한 날
 3. 지우다</t>
         </is>
       </c>
@@ -1785,8 +1785,8 @@
         <is>
           <t>delete
 1. 지우다
-2. 입이 가벼운 사람, 수다스러운 사람
-3. 폭로하다</t>
+2. 크거나 중요한 일(사람)
+3. 예기치 못한 일</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1799,14 +1799,14 @@
       <c r="A92" t="inlineStr">
         <is>
           <t>censor
-1. 크거나 중요한 일(사람)
-2. 폭로하다
-3. 지우다</t>
+1. 지우다
+2. (부모와 아주 닮은) 판박이
+3. 하락세</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3, 지우다</t>
+          <t>1, 지우다</t>
         </is>
       </c>
     </row>
@@ -1814,14 +1814,14 @@
       <c r="A93" t="inlineStr">
         <is>
           <t>celebrate
-1. 냉혈한, 냉정한 인간
-2. 축하하다, 기념하다
-3. 유력한 경쟁 상대 (다크호스)</t>
+1. 축하하다, 기념하다
+2. 우물 안 개구리
+3. 심술 맞은 사람</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2, 축하하다, 기념하다</t>
+          <t>1, 축하하다, 기념하다</t>
         </is>
       </c>
     </row>
@@ -1829,14 +1829,14 @@
       <c r="A94" t="inlineStr">
         <is>
           <t>congratulate
-1. 축하하다, 기념하다
-2. 13(개)
-3. 최후의 수단</t>
+1. (부모와 아주 닮은) 판박이
+2. 유리천장(승진하기 힘든 구조)
+3. 축하하다, 기념하다</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1, 축하하다, 기념하다</t>
+          <t>3, 축하하다, 기념하다</t>
         </is>
       </c>
     </row>
@@ -1844,9 +1844,9 @@
       <c r="A95" t="inlineStr">
         <is>
           <t>commemorate
-1. 유리천장(승진하기 힘든 구조)
+1. 쓸데없이 간섭하는 사람
 2. 축하하다, 기념하다
-3. ~와는 완전히 다른</t>
+3. 예상치 못한 상황에 대한 늦은 반응</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1859,14 +1859,14 @@
       <c r="A96" t="inlineStr">
         <is>
           <t>felicitate
-1. 크거나 중요한 일(사람)
-2. 쉬운 일
-3. 축하하다, 기념하다</t>
+1. 축하하다, 기념하다
+2. 자기 말을 지키는 사람
+3. 품질이 좋지 않은 물건</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>3, 축하하다, 기념하다</t>
+          <t>1, 축하하다, 기념하다</t>
         </is>
       </c>
     </row>
@@ -1875,8 +1875,8 @@
         <is>
           <t>fete
 1. 축하하다, 기념하다
-2. 실망시키다
-3. 심술 맞은 사람</t>
+2. 자기 말을 지키는 사람
+3. 품질이 좋지 않은 물건</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1889,8 +1889,8 @@
       <c r="A98" t="inlineStr">
         <is>
           <t>memorialize
-1. 이익을 불러오는 사업
-2. 지우다
+1. 큰 금액의 정치 후원을 하는 사람, 부자
+2. (특히 공인이면서) 돌출 행동을 자주 하는 사람
 3. 축하하다, 기념하다</t>
         </is>
       </c>
